--- a/pipelines/datasus_mortalidade/modelagem/dicionario_de_dados.xlsx
+++ b/pipelines/datasus_mortalidade/modelagem/dicionario_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\machine_learning_na_saude\pipelines\datasus_mortalidade\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788DF45-5367-415F-ACAC-A18DC3024DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AABDC6-28EA-4F01-B681-7DB06D9F94B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="344" activeTab="3" xr2:uid="{CBF995CA-7EFA-4F70-B438-41CBD4046CF2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="186">
   <si>
     <t>competênciamov</t>
   </si>
@@ -543,37 +543,13 @@
     <t>Data em que occoreu o óbito.(Data no padrão ddmmaaaa)</t>
   </si>
   <si>
-    <t>Local de ocorrência do óbito:
-1 – hospital;
-2 – outros estabelecimentos de saúde;
-3 – domicílio;
-4 – via pública;
-5 – outros;
-6 - aldeia indígena;
-9 – ignorado)</t>
-  </si>
-  <si>
-    <t>MODELO 1</t>
-  </si>
-  <si>
-    <t>MODELO 2</t>
-  </si>
-  <si>
     <t>DESCRIÇÃO</t>
   </si>
   <si>
     <t>Código do município de residência. Em caso de óbito fetal, considerar o município de residência da mãe. (Números)</t>
   </si>
   <si>
-    <t>Código relativo ao município onde ocorreu o óbito. (Números)</t>
-  </si>
-  <si>
     <t>Causa básica da DO. (Códigos CID 10)</t>
-  </si>
-  <si>
-    <t>M ou 1 – masculino;
-F ou 2 – feminino;
-I ou 3 - ignorado</t>
   </si>
   <si>
     <t>Tipo do óbito Óbito fetal: morte antes da expulsão ou da extração completa do corpo da Mãe, independentemente da duração da gravidez. Indica o óbito o fato de o feto, depois da expulsão do corpo materno, não respirar nem apresentar nenhum outro sinal de vida, como batimentos do coração, pulsações do cordão umbilical ou movimentos efetivos dos músculos de contração voluntária:
@@ -582,9 +558,6 @@
 3-Ignorado</t>
   </si>
   <si>
-    <t>País e Unidade da Federação onde falecido nasceu. Se estrangeiro informar País. (Números)</t>
-  </si>
-  <si>
     <t>Data do nascimento do falecido. Em caso de óbito fetal as datas de óbito e nascimento deverão ser iguais. (Data no padrão ddmmaaaa)</t>
   </si>
   <si>
@@ -592,6 +565,30 @@
   </si>
   <si>
     <t>ano filename</t>
+  </si>
+  <si>
+    <t>pk_base_origem</t>
+  </si>
+  <si>
+    <t>ano_arquivo</t>
+  </si>
+  <si>
+    <t>dt_obito</t>
+  </si>
+  <si>
+    <t>dt_nascimento</t>
+  </si>
+  <si>
+    <t>tp_obito</t>
+  </si>
+  <si>
+    <t>cd_mun_res</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>cid10</t>
   </si>
 </sst>
 </file>
@@ -607,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,24 +614,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,21 +645,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9487,8 +9459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6489089B-1FEB-4226-A84A-4E991033E055}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9524,7 +9496,7 @@
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1979</v>
       </c>
@@ -9583,7 +9555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1980</v>
       </c>
@@ -9642,7 +9614,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1981</v>
       </c>
@@ -9701,7 +9673,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -9760,7 +9732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -9819,7 +9791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -9878,7 +9850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -9937,7 +9909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -9996,7 +9968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -10055,7 +10027,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -10114,7 +10086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -10173,7 +10145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -10232,7 +10204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -10291,7 +10263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -10350,7 +10322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1993</v>
       </c>
@@ -10409,7 +10381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -10468,7 +10440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -10527,7 +10499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1996</v>
       </c>
@@ -10586,7 +10558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1997</v>
       </c>
@@ -10645,7 +10617,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -10704,7 +10676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -10763,7 +10735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -10822,7 +10794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -10881,7 +10853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -10940,7 +10912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -10999,7 +10971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -11058,7 +11030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -11117,7 +11089,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -11176,7 +11148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -11235,7 +11207,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -11294,7 +11266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -12002,7 +11974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -12061,7 +12033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -12128,28 +12100,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D2AB3B-38F7-4FA8-B0C1-C853A6B21DDE}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="131.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12157,7 +12128,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
@@ -12165,124 +12136,81 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>178</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>177</v>
+      <c r="B9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>